--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>53.5565813421834</v>
+        <v>2.912067666666667</v>
       </c>
       <c r="H2">
-        <v>53.5565813421834</v>
+        <v>8.736203</v>
       </c>
       <c r="I2">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546265</v>
       </c>
       <c r="J2">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546266</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>7587.34799065515</v>
+        <v>447.0868872715062</v>
       </c>
       <c r="R2">
-        <v>7587.34799065515</v>
+        <v>4023.781985443556</v>
       </c>
       <c r="S2">
-        <v>0.3025355440593709</v>
+        <v>0.01565955884845179</v>
       </c>
       <c r="T2">
-        <v>0.3025355440593709</v>
+        <v>0.01565955884845179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>53.5565813421834</v>
+        <v>2.912067666666667</v>
       </c>
       <c r="H3">
-        <v>53.5565813421834</v>
+        <v>8.736203</v>
       </c>
       <c r="I3">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546265</v>
       </c>
       <c r="J3">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546266</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>9030.609618130984</v>
+        <v>491.5561562785472</v>
       </c>
       <c r="R3">
-        <v>9030.609618130984</v>
+        <v>4424.005406506924</v>
       </c>
       <c r="S3">
-        <v>0.3600837074263594</v>
+        <v>0.0172171288751936</v>
       </c>
       <c r="T3">
-        <v>0.3600837074263594</v>
+        <v>0.0172171288751936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>53.5565813421834</v>
+        <v>2.912067666666667</v>
       </c>
       <c r="H4">
-        <v>53.5565813421834</v>
+        <v>8.736203</v>
       </c>
       <c r="I4">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546265</v>
       </c>
       <c r="J4">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546266</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>3298.742323952137</v>
+        <v>198.2836289918789</v>
       </c>
       <c r="R4">
-        <v>3298.742323952137</v>
+        <v>1784.55266092691</v>
       </c>
       <c r="S4">
-        <v>0.1315330211448967</v>
+        <v>0.006945035171647269</v>
       </c>
       <c r="T4">
-        <v>0.1315330211448967</v>
+        <v>0.006945035171647271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>53.5565813421834</v>
+        <v>2.912067666666667</v>
       </c>
       <c r="H5">
-        <v>53.5565813421834</v>
+        <v>8.736203</v>
       </c>
       <c r="I5">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546265</v>
       </c>
       <c r="J5">
-        <v>0.9653807418730574</v>
+        <v>0.04936487121546266</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>4294.272218786154</v>
+        <v>272.4608348502064</v>
       </c>
       <c r="R5">
-        <v>4294.272218786154</v>
+        <v>2452.147513651857</v>
       </c>
       <c r="S5">
-        <v>0.1712284692424303</v>
+        <v>0.009543148320170003</v>
       </c>
       <c r="T5">
-        <v>0.1712284692424303</v>
+        <v>0.009543148320170005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.92057810298172</v>
+        <v>54.02320233333333</v>
       </c>
       <c r="H6">
-        <v>1.92057810298172</v>
+        <v>162.069607</v>
       </c>
       <c r="I6">
-        <v>0.03461925812694255</v>
+        <v>0.9157920526223629</v>
       </c>
       <c r="J6">
-        <v>0.03461925812694255</v>
+        <v>0.915792052622363</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>272.0878376730339</v>
+        <v>8294.129167436506</v>
       </c>
       <c r="R6">
-        <v>272.0878376730339</v>
+        <v>74647.16250692855</v>
       </c>
       <c r="S6">
-        <v>0.01084914545948502</v>
+        <v>0.2905081931317248</v>
       </c>
       <c r="T6">
-        <v>0.01084914545948502</v>
+        <v>0.2905081931317249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.92057810298172</v>
+        <v>54.02320233333333</v>
       </c>
       <c r="H7">
-        <v>1.92057810298172</v>
+        <v>162.069607</v>
       </c>
       <c r="I7">
-        <v>0.03461925812694255</v>
+        <v>0.9157920526223629</v>
       </c>
       <c r="J7">
-        <v>0.03461925812694255</v>
+        <v>0.915792052622363</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>323.8442532084778</v>
+        <v>9119.10049096784</v>
       </c>
       <c r="R7">
-        <v>323.8442532084778</v>
+        <v>82071.90441871056</v>
       </c>
       <c r="S7">
-        <v>0.01291286460771225</v>
+        <v>0.3194034422587225</v>
       </c>
       <c r="T7">
-        <v>0.01291286460771225</v>
+        <v>0.3194034422587225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.92057810298172</v>
+        <v>54.02320233333333</v>
       </c>
       <c r="H8">
-        <v>1.92057810298172</v>
+        <v>162.069607</v>
       </c>
       <c r="I8">
-        <v>0.03461925812694255</v>
+        <v>0.9157920526223629</v>
       </c>
       <c r="J8">
-        <v>0.03461925812694255</v>
+        <v>0.915792052622363</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>118.295307803215</v>
+        <v>3678.457314378754</v>
       </c>
       <c r="R8">
-        <v>118.295307803215</v>
+        <v>33106.11582940879</v>
       </c>
       <c r="S8">
-        <v>0.004716870156739198</v>
+        <v>0.1288407699397611</v>
       </c>
       <c r="T8">
-        <v>0.004716870156739198</v>
+        <v>0.1288407699397611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>54.02320233333333</v>
+      </c>
+      <c r="H9">
+        <v>162.069607</v>
+      </c>
+      <c r="I9">
+        <v>0.9157920526223629</v>
+      </c>
+      <c r="J9">
+        <v>0.915792052622363</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>93.562673</v>
+      </c>
+      <c r="N9">
+        <v>280.688019</v>
+      </c>
+      <c r="O9">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P9">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q9">
+        <v>5054.555214326504</v>
+      </c>
+      <c r="R9">
+        <v>45490.99692893853</v>
+      </c>
+      <c r="S9">
+        <v>0.1770396472921545</v>
+      </c>
+      <c r="T9">
+        <v>0.1770396472921546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04379166666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.131375</v>
+      </c>
+      <c r="I10">
+        <v>0.0007423488162914034</v>
+      </c>
+      <c r="J10">
+        <v>0.0007423488162914035</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>153.5290173333333</v>
+      </c>
+      <c r="N10">
+        <v>460.587052</v>
+      </c>
+      <c r="O10">
+        <v>0.3172206968818489</v>
+      </c>
+      <c r="P10">
+        <v>0.317220696881849</v>
+      </c>
+      <c r="Q10">
+        <v>6.723291550722222</v>
+      </c>
+      <c r="R10">
+        <v>60.50962395650001</v>
+      </c>
+      <c r="S10">
+        <v>0.0002354884088333746</v>
+      </c>
+      <c r="T10">
+        <v>0.0002354884088333747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.04379166666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.131375</v>
+      </c>
+      <c r="I11">
+        <v>0.0007423488162914034</v>
+      </c>
+      <c r="J11">
+        <v>0.0007423488162914035</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>168.7997026666667</v>
+      </c>
+      <c r="N11">
+        <v>506.3991080000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="P11">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="Q11">
+        <v>7.392020312611113</v>
+      </c>
+      <c r="R11">
+        <v>66.52818281350002</v>
+      </c>
+      <c r="S11">
+        <v>0.0002589111432024369</v>
+      </c>
+      <c r="T11">
+        <v>0.000258911143202437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.04379166666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.131375</v>
+      </c>
+      <c r="I12">
+        <v>0.0007423488162914034</v>
+      </c>
+      <c r="J12">
+        <v>0.0007423488162914035</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>68.09032333333333</v>
+      </c>
+      <c r="N12">
+        <v>204.27097</v>
+      </c>
+      <c r="O12">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="P12">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="Q12">
+        <v>2.981788742638889</v>
+      </c>
+      <c r="R12">
+        <v>26.83609868375001</v>
+      </c>
+      <c r="S12">
+        <v>0.0001044394224441854</v>
+      </c>
+      <c r="T12">
+        <v>0.0001044394224441855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04379166666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.131375</v>
+      </c>
+      <c r="I13">
+        <v>0.0007423488162914034</v>
+      </c>
+      <c r="J13">
+        <v>0.0007423488162914035</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>93.562673</v>
+      </c>
+      <c r="N13">
+        <v>280.688019</v>
+      </c>
+      <c r="O13">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P13">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q13">
+        <v>4.097265388458334</v>
+      </c>
+      <c r="R13">
+        <v>36.87538849612501</v>
+      </c>
+      <c r="S13">
+        <v>0.0001435098418114064</v>
+      </c>
+      <c r="T13">
+        <v>0.0001435098418114065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.011625333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.034876000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="J14">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>153.5290173333333</v>
+      </c>
+      <c r="N14">
+        <v>460.587052</v>
+      </c>
+      <c r="O14">
+        <v>0.3172206968818489</v>
+      </c>
+      <c r="P14">
+        <v>0.317220696881849</v>
+      </c>
+      <c r="Q14">
+        <v>308.8428606695057</v>
+      </c>
+      <c r="R14">
+        <v>2779.585746025552</v>
+      </c>
+      <c r="S14">
+        <v>0.01081745649283897</v>
+      </c>
+      <c r="T14">
+        <v>0.01081745649283898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.92057810298172</v>
-      </c>
-      <c r="H9">
-        <v>1.92057810298172</v>
-      </c>
-      <c r="I9">
-        <v>0.03461925812694255</v>
-      </c>
-      <c r="J9">
-        <v>0.03461925812694255</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>80.1819703791251</v>
-      </c>
-      <c r="N9">
-        <v>80.1819703791251</v>
-      </c>
-      <c r="O9">
-        <v>0.1773688471454364</v>
-      </c>
-      <c r="P9">
-        <v>0.1773688471454364</v>
-      </c>
-      <c r="Q9">
-        <v>153.9957365640766</v>
-      </c>
-      <c r="R9">
-        <v>153.9957365640766</v>
-      </c>
-      <c r="S9">
-        <v>0.006140377903006079</v>
-      </c>
-      <c r="T9">
-        <v>0.006140377903006079</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.011625333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.034876000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="J15">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>168.7997026666667</v>
+      </c>
+      <c r="N15">
+        <v>506.3991080000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="P15">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="Q15">
+        <v>339.5617581434009</v>
+      </c>
+      <c r="R15">
+        <v>3056.055823290609</v>
+      </c>
+      <c r="S15">
+        <v>0.01189340928064662</v>
+      </c>
+      <c r="T15">
+        <v>0.01189340928064662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.011625333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.034876000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="J16">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>68.09032333333333</v>
+      </c>
+      <c r="N16">
+        <v>204.27097</v>
+      </c>
+      <c r="O16">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="P16">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="Q16">
+        <v>136.9722193721911</v>
+      </c>
+      <c r="R16">
+        <v>1232.74997434972</v>
+      </c>
+      <c r="S16">
+        <v>0.004797556338437876</v>
+      </c>
+      <c r="T16">
+        <v>0.004797556338437877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.011625333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.034876000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="J17">
+        <v>0.03410072734588315</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>93.562673</v>
+      </c>
+      <c r="N17">
+        <v>280.688019</v>
+      </c>
+      <c r="O17">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P17">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q17">
+        <v>188.2130432611827</v>
+      </c>
+      <c r="R17">
+        <v>1693.917389350644</v>
+      </c>
+      <c r="S17">
+        <v>0.00659230523395968</v>
+      </c>
+      <c r="T17">
+        <v>0.006592305233959682</v>
       </c>
     </row>
   </sheetData>
